--- a/SG_Mvn_Project/TestData/UserModule.xlsx
+++ b/SG_Mvn_Project/TestData/UserModule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SG_Maven_Framework\SG_Mvn_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CoreJava\LocalFrameworkCopy\OnlineBatch\SG_Mvn_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15C257-92A6-41D5-9AA5-FE3B627E2738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8F5DBD-3101-463D-9037-6A5ED5A52C44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{19C84C5F-3A2C-4D75-98C7-76D761821897}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>UserName</t>
   </si>
@@ -97,6 +97,24 @@
   </si>
   <si>
     <t>User_PWD</t>
+  </si>
+  <si>
+    <t>SRS_03_1</t>
+  </si>
+  <si>
+    <t>SRS_03_2</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>autouser1</t>
+  </si>
+  <si>
+    <t>autouser1@sg.com</t>
   </si>
 </sst>
 </file>
@@ -474,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2902592A-F963-4FD9-85B9-3DB599628624}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -578,6 +596,58 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
